--- a/Arkusze/Doktorat_obliczenia_EU-28_2006.xlsx
+++ b/Arkusze/Doktorat_obliczenia_EU-28_2006.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zemat\OneDrive\R_Map_Stats_GreenJobs\Arkusze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="113_{D9FEDD30-23F6-4652-ADE0-F613F0974E56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{C545A2F2-0731-461E-BB48-DE757444DF7B}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="113_{D9FEDD30-23F6-4652-ADE0-F613F0974E56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{6434E7D3-6694-49D0-9B07-44212EA8A0E1}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="60" windowWidth="15195" windowHeight="9210" tabRatio="885" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="178">
   <si>
     <t>X1</t>
   </si>
@@ -443,13 +443,7 @@
     <t>średnia d</t>
   </si>
   <si>
-    <t>średnia z</t>
-  </si>
-  <si>
     <t>odch.stand d</t>
-  </si>
-  <si>
-    <t>odch stand</t>
   </si>
   <si>
     <t>n=28 krajów</t>
@@ -4676,7 +4670,7 @@
         <v>125</v>
       </c>
       <c r="AA2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AB2" t="s">
         <v>124</v>
@@ -4691,13 +4685,13 @@
         <v>11</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F3" s="10">
         <v>102.4</v>
@@ -4707,7 +4701,7 @@
         <v>434</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I3" s="10">
         <f>[1]x8!$B2</f>
@@ -4805,13 +4799,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F4" s="10">
         <v>97.2</v>
@@ -4821,7 +4815,7 @@
         <v>:</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I4" s="10">
         <f>[1]x8!$B3</f>
@@ -4919,13 +4913,13 @@
         <v>30</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F5" s="10">
         <v>103.3</v>
@@ -4935,7 +4929,7 @@
         <v>23</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I5" s="10">
         <f>[1]x8!$B4</f>
@@ -5033,13 +5027,13 @@
         <v>:</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F6" s="10">
         <v>75.099999999999994</v>
@@ -5049,7 +5043,7 @@
         <v>583</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I6" s="10">
         <f>[1]x8!$B5</f>
@@ -5147,13 +5141,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F7" s="10">
         <v>115.4</v>
@@ -5163,7 +5157,7 @@
         <v>312</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I7" s="10">
         <f>[1]x8!$B6</f>
@@ -5261,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F8" s="10">
         <v>120.1</v>
@@ -5277,7 +5271,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I8" s="10">
         <f>[1]x8!$B7</f>
@@ -5375,13 +5369,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F9" s="10">
         <v>94.8</v>
@@ -5391,7 +5385,7 @@
         <v>:</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I9" s="10">
         <f>[1]x8!$B8</f>
@@ -5489,13 +5483,13 @@
         <v>16</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F10" s="10">
         <v>110.7</v>
@@ -5505,7 +5499,7 @@
         <v>276</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I10" s="10">
         <f>[1]x8!$B9</f>
@@ -5603,13 +5597,13 @@
         <v>13</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F11" s="10">
         <v>102.7</v>
@@ -5619,7 +5613,7 @@
         <v>:</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I11" s="10">
         <f>[1]x8!$B10</f>
@@ -5717,13 +5711,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F12" s="10">
         <v>112.4</v>
@@ -5733,7 +5727,7 @@
         <v>681</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I12" s="10">
         <f>[1]x8!$B11</f>
@@ -5831,13 +5825,13 @@
         <v>16</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F13" s="10">
         <v>110.8</v>
@@ -5847,7 +5841,7 @@
         <v>211</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I13" s="10">
         <f>[1]x8!$B12</f>
@@ -5945,13 +5939,13 @@
         <v>23</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F14" s="10">
         <v>93.3</v>
@@ -5961,7 +5955,7 @@
         <v>97</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I14" s="10">
         <f>[1]x8!$B13</f>
@@ -6059,13 +6053,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F15" s="10">
         <v>120.2</v>
@@ -6075,7 +6069,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I15" s="10">
         <f>[1]x8!$B14</f>
@@ -6173,13 +6167,13 @@
         <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F16" s="10">
         <v>100.9</v>
@@ -6189,7 +6183,7 @@
         <v>84</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I16" s="10">
         <f>[1]x8!$B15</f>
@@ -6287,13 +6281,13 @@
         <v>10</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F17" s="10">
         <v>109.8</v>
@@ -6303,7 +6297,7 @@
         <v>140</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I17" s="10">
         <f>[1]x8!$B16</f>
@@ -6401,13 +6395,13 @@
         <v>15</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F18" s="10">
         <v>103.9</v>
@@ -6417,7 +6411,7 @@
         <v>153</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I18" s="10">
         <f>[1]x8!$B17</f>
@@ -6515,13 +6509,13 @@
         <v>11</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F19" s="10">
         <v>126.3</v>
@@ -6531,7 +6525,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I19" s="10">
         <f>[1]x8!$B18</f>
@@ -6629,13 +6623,13 @@
         <v>13</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F20" s="10">
         <v>95.2</v>
@@ -6645,7 +6639,7 @@
         <v>:</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I20" s="10">
         <f>[1]x8!$B19</f>
@@ -6743,13 +6737,13 @@
         <v>10</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F21" s="10">
         <v>116</v>
@@ -6759,7 +6753,7 @@
         <v>868</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I21" s="10">
         <f>[1]x8!$B20</f>
@@ -6857,13 +6851,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F22" s="10">
         <v>118.4</v>
@@ -6873,7 +6867,7 @@
         <v>:</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I22" s="10">
         <f>[1]x8!$B21</f>
@@ -6971,13 +6965,13 @@
         <v>17</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F23" s="10">
         <v>98.8</v>
@@ -6987,7 +6981,7 @@
         <v>120</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I23" s="10">
         <f>[1]x8!$B22</f>
@@ -7085,13 +7079,13 @@
         <v>13</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F24" s="10">
         <v>68.5</v>
@@ -7101,7 +7095,7 @@
         <v>229</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I24" s="10">
         <f>[1]x8!$B23</f>
@@ -7199,13 +7193,13 @@
         <v>12</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F25" s="10">
         <v>101.3</v>
@@ -7215,7 +7209,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I25" s="10">
         <f>[1]x8!$B24</f>
@@ -7313,13 +7307,13 @@
         <v>31</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F26" s="10">
         <v>99.9</v>
@@ -7329,7 +7323,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I26" s="10">
         <f>[1]x8!$B25</f>
@@ -7427,13 +7421,13 @@
         <v>14</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F27" s="10">
         <v>113.4</v>
@@ -7443,7 +7437,7 @@
         <v>113</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I27" s="10">
         <f>[1]x8!$B26</f>
@@ -7541,13 +7535,13 @@
         <v>15</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F28" s="10">
         <v>102.4</v>
@@ -7557,7 +7551,7 @@
         <v>615</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I28" s="10">
         <f>[1]x8!$B27</f>
@@ -7655,13 +7649,13 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F29">
         <v>120.4</v>
@@ -7671,7 +7665,7 @@
         <v>:</v>
       </c>
       <c r="H29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I29">
         <f>[1]x8!$B28</f>
@@ -7769,13 +7763,13 @@
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F30">
         <v>115.8</v>
@@ -7785,7 +7779,7 @@
         <v>268</v>
       </c>
       <c r="H30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I30">
         <f>[1]x8!$B29</f>
@@ -8480,7 +8474,7 @@
         <v>125</v>
       </c>
       <c r="U2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="V2" t="s">
         <v>124</v>
@@ -13838,22 +13832,22 @@
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.2">
@@ -15982,7 +15976,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y41" sqref="Y40:Y41"/>
+      <selection pane="bottomRight" activeCell="AA32" sqref="AA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15997,7 +15991,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B1" t="str">
         <f>'dane po Vs'!B2</f>
@@ -16090,10 +16084,10 @@
         <v>64</v>
       </c>
       <c r="Y1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AA1" t="s">
         <v>62</v>
@@ -16105,7 +16099,7 @@
         <v>134</v>
       </c>
       <c r="AD1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AE1" t="s">
         <v>122</v>
@@ -16201,27 +16195,27 @@
         <v>166.80385803767996</v>
       </c>
       <c r="W2" s="9">
-        <f>((B2-$B$30)^2+(C2-$C$30)^2+(D2-$D$30)^2+(E2-$E$30)^2+(F2-$F$30)^2+(G2-$G$30)^2+(H2-$H$30)^2+(I2-$I$30)^2+(J2-$J$30)^2+(K2-$K$30)^2+(L2-$L$30)^2+(M2-$M$30)^2+(N2-$N$30)^2++(O2-$O$30)^2+(P2-$P$30)+(Q2-$Q$30)^2+(R2-$R$30)^2+(S2-$S$30)^2+(T2-$T$30)^2+(U2-$U$30)^2+(V2-$V$30)^2)^(0.5)</f>
+        <f t="shared" ref="W2:W29" si="0">((B2-$B$30)^2+(C2-$C$30)^2+(D2-$D$30)^2+(E2-$E$30)^2+(F2-$F$30)^2+(G2-$G$30)^2+(H2-$H$30)^2+(I2-$I$30)^2+(J2-$J$30)^2+(K2-$K$30)^2+(L2-$L$30)^2+(M2-$M$30)^2+(N2-$N$30)^2++(O2-$O$30)^2+(P2-$P$30)+(Q2-$Q$30)^2+(R2-$R$30)^2+(S2-$S$30)^2+(T2-$T$30)^2+(U2-$U$30)^2+(V2-$V$30)^2)^(0.5)</f>
         <v>11406.618536664555</v>
       </c>
       <c r="X2" s="9">
-        <f>1-(W2/$AE$2)</f>
+        <f t="shared" ref="X2:X29" si="1">1-(W2/$AE$2)</f>
         <v>0.31145848759118178</v>
       </c>
       <c r="Y2" s="10">
-        <f>X2-$AE$3</f>
+        <f t="shared" ref="Y2:Y29" si="2">X2-$AE$3</f>
         <v>0.12371885016770012</v>
       </c>
       <c r="Z2">
-        <f>Y2/$AE$4</f>
+        <f t="shared" ref="Z2:Z29" si="3">Y2/$AE$4</f>
         <v>0.1577439917579746</v>
       </c>
       <c r="AA2" t="str">
-        <f t="shared" ref="AA2:AA29" si="0">A2</f>
+        <f t="shared" ref="AA2:AA29" si="4">A2</f>
         <v>Austria</v>
       </c>
       <c r="AB2" s="10">
-        <f t="shared" ref="AB2:AB29" si="1">X2</f>
+        <f t="shared" ref="AB2:AB29" si="5">X2</f>
         <v>0.31145848759118178</v>
       </c>
       <c r="AC2" s="10">
@@ -16327,35 +16321,36 @@
         <v>74.099999999999994</v>
       </c>
       <c r="W3" s="9">
-        <f>((B3-$B$30)^2+(C3-$C$30)^2+(D3-$D$30)^2+(E3-$E$30)^2+(F3-$F$30)^2+(G3-$G$30)^2+(H3-$H$30)^2+(I3-$I$30)^2+(J3-$J$30)^2+(K3-$K$30)^2+(L3-$L$30)^2+(M3-$M$30)^2+(N3-$N$30)^2++(O3-$O$30)^2+(P3-$P$30)+(Q3-$Q$30)^2+(R3-$R$30)^2+(S3-$S$30)^2+(T3-$T$30)^2+(U3-$U$30)^2+(V3-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="0"/>
         <v>11256.228416776074</v>
       </c>
       <c r="X3" s="9">
-        <f>1-(W3/$AE$2)</f>
-        <v>0.32053653646837676</v>
-      </c>
-      <c r="Y3" s="10">
-        <f>X3-$AE$3</f>
-        <v>0.13279689904489511</v>
-      </c>
-      <c r="Z3">
-        <f>Y3/$AE$4</f>
-        <v>0.16931868442058551</v>
-      </c>
-      <c r="AA3" t="str">
-        <f t="shared" si="0"/>
-        <v>Belgia</v>
-      </c>
-      <c r="AB3" s="10">
         <f t="shared" si="1"/>
         <v>0.32053653646837676</v>
       </c>
-      <c r="AC3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD3" s="10">
+      <c r="Y3" s="10">
+        <f t="shared" si="2"/>
+        <v>0.13279689904489511</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="3"/>
+        <v>0.16931868442058551</v>
+      </c>
+      <c r="AA3" t="str">
+        <f t="shared" si="4"/>
+        <v>Belgia</v>
+      </c>
+      <c r="AB3" s="10">
+        <f t="shared" si="5"/>
+        <v>0.32053653646837676</v>
+      </c>
+      <c r="AC3" s="10">
         <f>AVERAGE(X2:X29)</f>
         <v>0.31750827400945131</v>
+      </c>
+      <c r="AD3" s="10">
+        <f>STDEV(X2:X29)</f>
+        <v>0.15875413700472593</v>
       </c>
       <c r="AE3" s="10">
         <f>MIN(X2:X29)</f>
@@ -16452,35 +16447,34 @@
         <v>33.18</v>
       </c>
       <c r="W4" s="9">
-        <f>((B4-$B$30)^2+(C4-$C$30)^2+(D4-$D$30)^2+(E4-$E$30)^2+(F4-$F$30)^2+(G4-$G$30)^2+(H4-$H$30)^2+(I4-$I$30)^2+(J4-$J$30)^2+(K4-$K$30)^2+(L4-$L$30)^2+(M4-$M$30)^2+(N4-$N$30)^2++(O4-$O$30)^2+(P4-$P$30)+(Q4-$Q$30)^2+(R4-$R$30)^2+(S4-$S$30)^2+(T4-$T$30)^2+(U4-$U$30)^2+(V4-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="0"/>
         <v>13351.949523868485</v>
       </c>
       <c r="X4" s="9">
-        <f>1-(W4/$AE$2)</f>
-        <v>0.19403182553881837</v>
-      </c>
-      <c r="Y4" s="10">
-        <f>X4-$AE$3</f>
-        <v>6.2921881153367165E-3</v>
-      </c>
-      <c r="Z4">
-        <f>Y4/$AE$4</f>
-        <v>8.0226648474335058E-3</v>
-      </c>
-      <c r="AA4" t="str">
-        <f t="shared" si="0"/>
-        <v>Bułgaria</v>
-      </c>
-      <c r="AB4" s="10">
         <f t="shared" si="1"/>
         <v>0.19403182553881837</v>
       </c>
+      <c r="Y4" s="10">
+        <f t="shared" si="2"/>
+        <v>6.2921881153367165E-3</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="3"/>
+        <v>8.0226648474335058E-3</v>
+      </c>
+      <c r="AA4" t="str">
+        <f t="shared" si="4"/>
+        <v>Bułgaria</v>
+      </c>
+      <c r="AB4" s="10">
+        <f t="shared" si="5"/>
+        <v>0.19403182553881837</v>
+      </c>
       <c r="AC4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD4" s="10">
-        <f>STDEV(X2:X29)</f>
-        <v>0.15875413700472593</v>
+        <v>176</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>176</v>
       </c>
       <c r="AE4" s="10">
         <f>MAX(Y2:Y29)</f>
@@ -16577,37 +16571,37 @@
         <v>48.333333333333336</v>
       </c>
       <c r="W5" s="9">
-        <f>((B5-$B$30)^2+(C5-$C$30)^2+(D5-$D$30)^2+(E5-$E$30)^2+(F5-$F$30)^2+(G5-$G$30)^2+(H5-$H$30)^2+(I5-$I$30)^2+(J5-$J$30)^2+(K5-$K$30)^2+(L5-$L$30)^2+(M5-$M$30)^2+(N5-$N$30)^2++(O5-$O$30)^2+(P5-$P$30)+(Q5-$Q$30)^2+(R5-$R$30)^2+(S5-$S$30)^2+(T5-$T$30)^2+(U5-$U$30)^2+(V5-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="0"/>
         <v>12452.711619772108</v>
       </c>
       <c r="X5" s="9">
-        <f>1-(W5/$AE$2)</f>
-        <v>0.24831282253294651</v>
-      </c>
-      <c r="Y5" s="10">
-        <f>X5-$AE$3</f>
-        <v>6.0573185109464855E-2</v>
-      </c>
-      <c r="Z5">
-        <f>Y5/$AE$4</f>
-        <v>7.7232014359249826E-2</v>
-      </c>
-      <c r="AA5" t="str">
-        <f t="shared" si="0"/>
-        <v>Chorwacja</v>
-      </c>
-      <c r="AB5" s="10">
         <f t="shared" si="1"/>
         <v>0.24831282253294651</v>
       </c>
+      <c r="Y5" s="10">
+        <f t="shared" si="2"/>
+        <v>6.0573185109464855E-2</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="3"/>
+        <v>7.7232014359249826E-2</v>
+      </c>
+      <c r="AA5" t="str">
+        <f t="shared" si="4"/>
+        <v>Chorwacja</v>
+      </c>
+      <c r="AB5" s="10">
+        <f t="shared" si="5"/>
+        <v>0.24831282253294651</v>
+      </c>
       <c r="AC5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AE5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
@@ -16700,37 +16694,37 @@
         <v>144.90352633826882</v>
       </c>
       <c r="W6" s="9">
-        <f>((B6-$B$30)^2+(C6-$C$30)^2+(D6-$D$30)^2+(E6-$E$30)^2+(F6-$F$30)^2+(G6-$G$30)^2+(H6-$H$30)^2+(I6-$I$30)^2+(J6-$J$30)^2+(K6-$K$30)^2+(L6-$L$30)^2+(M6-$M$30)^2+(N6-$N$30)^2++(O6-$O$30)^2+(P6-$P$30)+(Q6-$Q$30)^2+(R6-$R$30)^2+(S6-$S$30)^2+(T6-$T$30)^2+(U6-$U$30)^2+(V6-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="0"/>
         <v>11044.41030869833</v>
       </c>
       <c r="X6" s="9">
-        <f>1-(W6/$AE$2)</f>
-        <v>0.33332258344826204</v>
-      </c>
-      <c r="Y6" s="10">
-        <f>X6-$AE$3</f>
-        <v>0.14558294602478039</v>
-      </c>
-      <c r="Z6">
-        <f>Y6/$AE$4</f>
-        <v>0.18562114832708135</v>
-      </c>
-      <c r="AA6" t="str">
-        <f t="shared" si="0"/>
-        <v>Cypr</v>
-      </c>
-      <c r="AB6" s="10">
         <f t="shared" si="1"/>
         <v>0.33332258344826204</v>
       </c>
+      <c r="Y6" s="10">
+        <f t="shared" si="2"/>
+        <v>0.14558294602478039</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="3"/>
+        <v>0.18562114832708135</v>
+      </c>
+      <c r="AA6" t="str">
+        <f t="shared" si="4"/>
+        <v>Cypr</v>
+      </c>
+      <c r="AB6" s="10">
+        <f t="shared" si="5"/>
+        <v>0.33332258344826204</v>
+      </c>
       <c r="AC6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AE6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -16823,37 +16817,37 @@
         <v>106.25</v>
       </c>
       <c r="W7" s="9">
-        <f>((B7-$B$30)^2+(C7-$C$30)^2+(D7-$D$30)^2+(E7-$E$30)^2+(F7-$F$30)^2+(G7-$G$30)^2+(H7-$H$30)^2+(I7-$I$30)^2+(J7-$J$30)^2+(K7-$K$30)^2+(L7-$L$30)^2+(M7-$M$30)^2+(N7-$N$30)^2++(O7-$O$30)^2+(P7-$P$30)+(Q7-$Q$30)^2+(R7-$R$30)^2+(S7-$S$30)^2+(T7-$T$30)^2+(U7-$U$30)^2+(V7-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="0"/>
         <v>10352.213851340104</v>
       </c>
       <c r="X7" s="9">
-        <f>1-(W7/$AE$2)</f>
-        <v>0.37510586866127182</v>
-      </c>
-      <c r="Y7" s="10">
-        <f>X7-$AE$3</f>
-        <v>0.18736623123779017</v>
-      </c>
-      <c r="Z7">
-        <f>Y7/$AE$4</f>
-        <v>0.23889566703888615</v>
-      </c>
-      <c r="AA7" t="str">
-        <f t="shared" si="0"/>
-        <v>Czechy</v>
-      </c>
-      <c r="AB7" s="10">
         <f t="shared" si="1"/>
         <v>0.37510586866127182</v>
       </c>
+      <c r="Y7" s="10">
+        <f t="shared" si="2"/>
+        <v>0.18736623123779017</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="3"/>
+        <v>0.23889566703888615</v>
+      </c>
+      <c r="AA7" t="str">
+        <f t="shared" si="4"/>
+        <v>Czechy</v>
+      </c>
+      <c r="AB7" s="10">
+        <f t="shared" si="5"/>
+        <v>0.37510586866127182</v>
+      </c>
       <c r="AC7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AE7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
@@ -16946,37 +16940,37 @@
         <v>68.575000000000003</v>
       </c>
       <c r="W8" s="9">
-        <f>((B8-$B$30)^2+(C8-$C$30)^2+(D8-$D$30)^2+(E8-$E$30)^2+(F8-$F$30)^2+(G8-$G$30)^2+(H8-$H$30)^2+(I8-$I$30)^2+(J8-$J$30)^2+(K8-$K$30)^2+(L8-$L$30)^2+(M8-$M$30)^2+(N8-$N$30)^2++(O8-$O$30)^2+(P8-$P$30)+(Q8-$Q$30)^2+(R8-$R$30)^2+(S8-$S$30)^2+(T8-$T$30)^2+(U8-$U$30)^2+(V8-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="0"/>
         <v>8828.6443781345588</v>
       </c>
       <c r="X8" s="9">
-        <f>1-(W8/$AE$2)</f>
-        <v>0.46707360002433063</v>
-      </c>
-      <c r="Y8" s="10">
-        <f>X8-$AE$3</f>
-        <v>0.27933396260084897</v>
-      </c>
-      <c r="Z8">
-        <f>Y8/$AE$4</f>
-        <v>0.35615635155437703</v>
-      </c>
-      <c r="AA8" t="str">
-        <f t="shared" si="0"/>
-        <v>Dania</v>
-      </c>
-      <c r="AB8" s="10">
         <f t="shared" si="1"/>
         <v>0.46707360002433063</v>
       </c>
+      <c r="Y8" s="10">
+        <f t="shared" si="2"/>
+        <v>0.27933396260084897</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="3"/>
+        <v>0.35615635155437703</v>
+      </c>
+      <c r="AA8" t="str">
+        <f t="shared" si="4"/>
+        <v>Dania</v>
+      </c>
+      <c r="AB8" s="10">
+        <f t="shared" si="5"/>
+        <v>0.46707360002433063</v>
+      </c>
       <c r="AC8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AE8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
@@ -17069,37 +17063,37 @@
         <v>28.25</v>
       </c>
       <c r="W9" s="9">
-        <f>((B9-$B$30)^2+(C9-$C$30)^2+(D9-$D$30)^2+(E9-$E$30)^2+(F9-$F$30)^2+(G9-$G$30)^2+(H9-$H$30)^2+(I9-$I$30)^2+(J9-$J$30)^2+(K9-$K$30)^2+(L9-$L$30)^2+(M9-$M$30)^2+(N9-$N$30)^2++(O9-$O$30)^2+(P9-$P$30)+(Q9-$Q$30)^2+(R9-$R$30)^2+(S9-$S$30)^2+(T9-$T$30)^2+(U9-$U$30)^2+(V9-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="0"/>
         <v>9966.8693523822003</v>
       </c>
       <c r="X9" s="9">
-        <f>1-(W9/$AE$2)</f>
-        <v>0.39836654694713292</v>
-      </c>
-      <c r="Y9" s="10">
-        <f>X9-$AE$3</f>
-        <v>0.21062690952365126</v>
-      </c>
-      <c r="Z9">
-        <f>Y9/$AE$4</f>
-        <v>0.26855349394914396</v>
-      </c>
-      <c r="AA9" t="str">
-        <f t="shared" si="0"/>
-        <v>Estonia</v>
-      </c>
-      <c r="AB9" s="10">
         <f t="shared" si="1"/>
         <v>0.39836654694713292</v>
       </c>
+      <c r="Y9" s="10">
+        <f t="shared" si="2"/>
+        <v>0.21062690952365126</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="3"/>
+        <v>0.26855349394914396</v>
+      </c>
+      <c r="AA9" t="str">
+        <f t="shared" si="4"/>
+        <v>Estonia</v>
+      </c>
+      <c r="AB9" s="10">
+        <f t="shared" si="5"/>
+        <v>0.39836654694713292</v>
+      </c>
       <c r="AC9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AE9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -17192,37 +17186,37 @@
         <v>132.69999999999999</v>
       </c>
       <c r="W10" s="9">
-        <f>((B10-$B$30)^2+(C10-$C$30)^2+(D10-$D$30)^2+(E10-$E$30)^2+(F10-$F$30)^2+(G10-$G$30)^2+(H10-$H$30)^2+(I10-$I$30)^2+(J10-$J$30)^2+(K10-$K$30)^2+(L10-$L$30)^2+(M10-$M$30)^2+(N10-$N$30)^2++(O10-$O$30)^2+(P10-$P$30)+(Q10-$Q$30)^2+(R10-$R$30)^2+(S10-$S$30)^2+(T10-$T$30)^2+(U10-$U$30)^2+(V10-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="0"/>
         <v>12655.73505042244</v>
       </c>
       <c r="X10" s="9">
-        <f>1-(W10/$AE$2)</f>
-        <v>0.23605765159468151</v>
-      </c>
-      <c r="Y10" s="10">
-        <f>X10-$AE$3</f>
-        <v>4.8318014171199852E-2</v>
-      </c>
-      <c r="Z10">
-        <f>Y10/$AE$4</f>
-        <v>6.1606427952183872E-2</v>
-      </c>
-      <c r="AA10" t="str">
-        <f t="shared" si="0"/>
-        <v>Finlandia</v>
-      </c>
-      <c r="AB10" s="10">
         <f t="shared" si="1"/>
         <v>0.23605765159468151</v>
       </c>
+      <c r="Y10" s="10">
+        <f t="shared" si="2"/>
+        <v>4.8318014171199852E-2</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="3"/>
+        <v>6.1606427952183872E-2</v>
+      </c>
+      <c r="AA10" t="str">
+        <f t="shared" si="4"/>
+        <v>Finlandia</v>
+      </c>
+      <c r="AB10" s="10">
+        <f t="shared" si="5"/>
+        <v>0.23605765159468151</v>
+      </c>
       <c r="AC10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AE10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
@@ -17315,37 +17309,37 @@
         <v>434.97499999999997</v>
       </c>
       <c r="W11" s="9">
-        <f>((B11-$B$30)^2+(C11-$C$30)^2+(D11-$D$30)^2+(E11-$E$30)^2+(F11-$F$30)^2+(G11-$G$30)^2+(H11-$H$30)^2+(I11-$I$30)^2+(J11-$J$30)^2+(K11-$K$30)^2+(L11-$L$30)^2+(M11-$M$30)^2+(N11-$N$30)^2++(O11-$O$30)^2+(P11-$P$30)+(Q11-$Q$30)^2+(R11-$R$30)^2+(S11-$S$30)^2+(T11-$T$30)^2+(U11-$U$30)^2+(V11-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="0"/>
         <v>12590.517951149654</v>
       </c>
       <c r="X11" s="9">
-        <f>1-(W11/$AE$2)</f>
-        <v>0.23999437307124027</v>
-      </c>
-      <c r="Y11" s="10">
-        <f>X11-$AE$3</f>
-        <v>5.2254735647758621E-2</v>
-      </c>
-      <c r="Z11">
-        <f>Y11/$AE$4</f>
-        <v>6.6625826041561309E-2</v>
-      </c>
-      <c r="AA11" t="str">
-        <f t="shared" si="0"/>
-        <v>Francja</v>
-      </c>
-      <c r="AB11" s="10">
         <f t="shared" si="1"/>
         <v>0.23999437307124027</v>
       </c>
+      <c r="Y11" s="10">
+        <f t="shared" si="2"/>
+        <v>5.2254735647758621E-2</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="3"/>
+        <v>6.6625826041561309E-2</v>
+      </c>
+      <c r="AA11" t="str">
+        <f t="shared" si="4"/>
+        <v>Francja</v>
+      </c>
+      <c r="AB11" s="10">
+        <f t="shared" si="5"/>
+        <v>0.23999437307124027</v>
+      </c>
       <c r="AC11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AE11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
@@ -17438,37 +17432,37 @@
         <v>145.53229055046864</v>
       </c>
       <c r="W12" s="9">
-        <f>((B12-$B$30)^2+(C12-$C$30)^2+(D12-$D$30)^2+(E12-$E$30)^2+(F12-$F$30)^2+(G12-$G$30)^2+(H12-$H$30)^2+(I12-$I$30)^2+(J12-$J$30)^2+(K12-$K$30)^2+(L12-$L$30)^2+(M12-$M$30)^2+(N12-$N$30)^2++(O12-$O$30)^2+(P12-$P$30)+(Q12-$Q$30)^2+(R12-$R$30)^2+(S12-$S$30)^2+(T12-$T$30)^2+(U12-$U$30)^2+(V12-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="0"/>
         <v>10677.431483618877</v>
       </c>
       <c r="X12" s="9">
-        <f>1-(W12/$AE$2)</f>
-        <v>0.35547464844719423</v>
-      </c>
-      <c r="Y12" s="10">
-        <f>X12-$AE$3</f>
-        <v>0.16773501102371258</v>
-      </c>
-      <c r="Z12">
-        <f>Y12/$AE$4</f>
-        <v>0.21386547127283376</v>
-      </c>
-      <c r="AA12" t="str">
-        <f t="shared" si="0"/>
-        <v>Grecja</v>
-      </c>
-      <c r="AB12" s="10">
         <f t="shared" si="1"/>
         <v>0.35547464844719423</v>
       </c>
+      <c r="Y12" s="10">
+        <f t="shared" si="2"/>
+        <v>0.16773501102371258</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="3"/>
+        <v>0.21386547127283376</v>
+      </c>
+      <c r="AA12" t="str">
+        <f t="shared" si="4"/>
+        <v>Grecja</v>
+      </c>
+      <c r="AB12" s="10">
+        <f t="shared" si="5"/>
+        <v>0.35547464844719423</v>
+      </c>
       <c r="AC12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AE12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
@@ -17561,37 +17555,37 @@
         <v>259.75</v>
       </c>
       <c r="W13" s="9">
-        <f>((B13-$B$30)^2+(C13-$C$30)^2+(D13-$D$30)^2+(E13-$E$30)^2+(F13-$F$30)^2+(G13-$G$30)^2+(H13-$H$30)^2+(I13-$I$30)^2+(J13-$J$30)^2+(K13-$K$30)^2+(L13-$L$30)^2+(M13-$M$30)^2+(N13-$N$30)^2++(O13-$O$30)^2+(P13-$P$30)+(Q13-$Q$30)^2+(R13-$R$30)^2+(S13-$S$30)^2+(T13-$T$30)^2+(U13-$U$30)^2+(V13-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="0"/>
         <v>13456.188103967292</v>
       </c>
       <c r="X13" s="9">
-        <f>1-(W13/$AE$2)</f>
-        <v>0.18773963742348165</v>
-      </c>
-      <c r="Y13" s="10">
-        <f>X13-$AE$3</f>
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <f>Y13/$AE$4</f>
-        <v>0</v>
-      </c>
-      <c r="AA13" t="str">
-        <f t="shared" si="0"/>
-        <v>Hiszpania</v>
-      </c>
-      <c r="AB13" s="10">
         <f t="shared" si="1"/>
         <v>0.18773963742348165</v>
       </c>
+      <c r="Y13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" t="str">
+        <f t="shared" si="4"/>
+        <v>Hiszpania</v>
+      </c>
+      <c r="AB13" s="10">
+        <f t="shared" si="5"/>
+        <v>0.18773963742348165</v>
+      </c>
       <c r="AC13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AE13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
@@ -17684,37 +17678,37 @@
         <v>130.75</v>
       </c>
       <c r="W14" s="9">
-        <f>((B14-$B$30)^2+(C14-$C$30)^2+(D14-$D$30)^2+(E14-$E$30)^2+(F14-$F$30)^2+(G14-$G$30)^2+(H14-$H$30)^2+(I14-$I$30)^2+(J14-$J$30)^2+(K14-$K$30)^2+(L14-$L$30)^2+(M14-$M$30)^2+(N14-$N$30)^2++(O14-$O$30)^2+(P14-$P$30)+(Q14-$Q$30)^2+(R14-$R$30)^2+(S14-$S$30)^2+(T14-$T$30)^2+(U14-$U$30)^2+(V14-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="0"/>
         <v>12266.524487877576</v>
       </c>
       <c r="X14" s="9">
-        <f>1-(W14/$AE$2)</f>
-        <v>0.25955169836399616</v>
-      </c>
-      <c r="Y14" s="10">
-        <f>X14-$AE$3</f>
-        <v>7.181206094051451E-2</v>
-      </c>
-      <c r="Z14">
-        <f>Y14/$AE$4</f>
-        <v>9.1561804314934742E-2</v>
-      </c>
-      <c r="AA14" t="str">
-        <f t="shared" si="0"/>
-        <v>Holandia</v>
-      </c>
-      <c r="AB14" s="10">
         <f t="shared" si="1"/>
         <v>0.25955169836399616</v>
       </c>
+      <c r="Y14" s="10">
+        <f t="shared" si="2"/>
+        <v>7.181206094051451E-2</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="3"/>
+        <v>9.1561804314934742E-2</v>
+      </c>
+      <c r="AA14" t="str">
+        <f t="shared" si="4"/>
+        <v>Holandia</v>
+      </c>
+      <c r="AB14" s="10">
+        <f t="shared" si="5"/>
+        <v>0.25955169836399616</v>
+      </c>
       <c r="AC14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AE14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
@@ -17807,37 +17801,37 @@
         <v>21.266666666666666</v>
       </c>
       <c r="W15" s="9">
-        <f>((B15-$B$30)^2+(C15-$C$30)^2+(D15-$D$30)^2+(E15-$E$30)^2+(F15-$F$30)^2+(G15-$G$30)^2+(H15-$H$30)^2+(I15-$I$30)^2+(J15-$J$30)^2+(K15-$K$30)^2+(L15-$L$30)^2+(M15-$M$30)^2+(N15-$N$30)^2++(O15-$O$30)^2+(P15-$P$30)+(Q15-$Q$30)^2+(R15-$R$30)^2+(S15-$S$30)^2+(T15-$T$30)^2+(U15-$U$30)^2+(V15-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="0"/>
         <v>13366.359213479447</v>
       </c>
       <c r="X15" s="9">
-        <f>1-(W15/$AE$2)</f>
-        <v>0.19316200864731958</v>
-      </c>
-      <c r="Y15" s="10">
-        <f>X15-$AE$3</f>
-        <v>5.4223712238379296E-3</v>
-      </c>
-      <c r="Z15">
-        <f>Y15/$AE$4</f>
-        <v>6.9136310310219679E-3</v>
-      </c>
-      <c r="AA15" t="str">
-        <f t="shared" si="0"/>
-        <v>Irlandia</v>
-      </c>
-      <c r="AB15" s="10">
         <f t="shared" si="1"/>
         <v>0.19316200864731958</v>
       </c>
+      <c r="Y15" s="10">
+        <f t="shared" si="2"/>
+        <v>5.4223712238379296E-3</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="3"/>
+        <v>6.9136310310219679E-3</v>
+      </c>
+      <c r="AA15" t="str">
+        <f t="shared" si="4"/>
+        <v>Irlandia</v>
+      </c>
+      <c r="AB15" s="10">
+        <f t="shared" si="5"/>
+        <v>0.19316200864731958</v>
+      </c>
       <c r="AC15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AE15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
@@ -17930,37 +17924,37 @@
         <v>36.933333333333337</v>
       </c>
       <c r="W16" s="9">
-        <f>((B16-$B$30)^2+(C16-$C$30)^2+(D16-$D$30)^2+(E16-$E$30)^2+(F16-$F$30)^2+(G16-$G$30)^2+(H16-$H$30)^2+(I16-$I$30)^2+(J16-$J$30)^2+(K16-$K$30)^2+(L16-$L$30)^2+(M16-$M$30)^2+(N16-$N$30)^2++(O16-$O$30)^2+(P16-$P$30)+(Q16-$Q$30)^2+(R16-$R$30)^2+(S16-$S$30)^2+(T16-$T$30)^2+(U16-$U$30)^2+(V16-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="0"/>
         <v>13401.919469617533</v>
       </c>
       <c r="X16" s="9">
-        <f>1-(W16/$AE$2)</f>
-        <v>0.1910154730667476</v>
-      </c>
-      <c r="Y16" s="10">
-        <f>X16-$AE$3</f>
-        <v>3.2758356432659452E-3</v>
-      </c>
-      <c r="Z16">
-        <f>Y16/$AE$4</f>
-        <v>4.1767555227952748E-3</v>
-      </c>
-      <c r="AA16" t="str">
-        <f t="shared" si="0"/>
-        <v>Litwa</v>
-      </c>
-      <c r="AB16" s="10">
         <f t="shared" si="1"/>
         <v>0.1910154730667476</v>
       </c>
+      <c r="Y16" s="10">
+        <f t="shared" si="2"/>
+        <v>3.2758356432659452E-3</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="3"/>
+        <v>4.1767555227952748E-3</v>
+      </c>
+      <c r="AA16" t="str">
+        <f t="shared" si="4"/>
+        <v>Litwa</v>
+      </c>
+      <c r="AB16" s="10">
+        <f t="shared" si="5"/>
+        <v>0.1910154730667476</v>
+      </c>
       <c r="AC16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AE16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -18053,37 +18047,37 @@
         <v>9.64</v>
       </c>
       <c r="W17" s="9">
-        <f>((B17-$B$30)^2+(C17-$C$30)^2+(D17-$D$30)^2+(E17-$E$30)^2+(F17-$F$30)^2+(G17-$G$30)^2+(H17-$H$30)^2+(I17-$I$30)^2+(J17-$J$30)^2+(K17-$K$30)^2+(L17-$L$30)^2+(M17-$M$30)^2+(N17-$N$30)^2++(O17-$O$30)^2+(P17-$P$30)+(Q17-$Q$30)^2+(R17-$R$30)^2+(S17-$S$30)^2+(T17-$T$30)^2+(U17-$U$30)^2+(V17-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="0"/>
         <v>13196.007802890141</v>
       </c>
       <c r="X17" s="9">
-        <f>1-(W17/$AE$2)</f>
-        <v>0.20344498756093155</v>
-      </c>
-      <c r="Y17" s="10">
-        <f>X17-$AE$3</f>
-        <v>1.5705350137449892E-2</v>
-      </c>
-      <c r="Z17">
-        <f>Y17/$AE$4</f>
-        <v>2.0024633427160592E-2</v>
-      </c>
-      <c r="AA17" t="str">
-        <f t="shared" si="0"/>
-        <v>Luksemburg</v>
-      </c>
-      <c r="AB17" s="10">
         <f t="shared" si="1"/>
         <v>0.20344498756093155</v>
       </c>
+      <c r="Y17" s="10">
+        <f t="shared" si="2"/>
+        <v>1.5705350137449892E-2</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="3"/>
+        <v>2.0024633427160592E-2</v>
+      </c>
+      <c r="AA17" t="str">
+        <f t="shared" si="4"/>
+        <v>Luksemburg</v>
+      </c>
+      <c r="AB17" s="10">
+        <f t="shared" si="5"/>
+        <v>0.20344498756093155</v>
+      </c>
       <c r="AC17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AE17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
@@ -18176,37 +18170,37 @@
         <v>27.9</v>
       </c>
       <c r="W18" s="9">
-        <f>((B18-$B$30)^2+(C18-$C$30)^2+(D18-$D$30)^2+(E18-$E$30)^2+(F18-$F$30)^2+(G18-$G$30)^2+(H18-$H$30)^2+(I18-$I$30)^2+(J18-$J$30)^2+(K18-$K$30)^2+(L18-$L$30)^2+(M18-$M$30)^2+(N18-$N$30)^2++(O18-$O$30)^2+(P18-$P$30)+(Q18-$Q$30)^2+(R18-$R$30)^2+(S18-$S$30)^2+(T18-$T$30)^2+(U18-$U$30)^2+(V18-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="0"/>
         <v>463.17617076241254</v>
       </c>
       <c r="X18" s="9">
-        <f>1-(W18/$AE$2)</f>
-        <v>0.97204114259599572</v>
-      </c>
-      <c r="Y18" s="10">
-        <f>X18-$AE$3</f>
-        <v>0.78430150517251407</v>
-      </c>
-      <c r="Z18">
-        <f>Y18/$AE$4</f>
-        <v>1</v>
-      </c>
-      <c r="AA18" t="str">
-        <f t="shared" si="0"/>
-        <v>Łotwa</v>
-      </c>
-      <c r="AB18" s="10">
         <f t="shared" si="1"/>
         <v>0.97204114259599572</v>
       </c>
+      <c r="Y18" s="10">
+        <f t="shared" si="2"/>
+        <v>0.78430150517251407</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AA18" t="str">
+        <f t="shared" si="4"/>
+        <v>Łotwa</v>
+      </c>
+      <c r="AB18" s="10">
+        <f t="shared" si="5"/>
+        <v>0.97204114259599572</v>
+      </c>
       <c r="AC18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AE18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -18299,37 +18293,37 @@
         <v>143.91419305977459</v>
       </c>
       <c r="W19" s="9">
-        <f>((B19-$B$30)^2+(C19-$C$30)^2+(D19-$D$30)^2+(E19-$E$30)^2+(F19-$F$30)^2+(G19-$G$30)^2+(H19-$H$30)^2+(I19-$I$30)^2+(J19-$J$30)^2+(K19-$K$30)^2+(L19-$L$30)^2+(M19-$M$30)^2+(N19-$N$30)^2++(O19-$O$30)^2+(P19-$P$30)+(Q19-$Q$30)^2+(R19-$R$30)^2+(S19-$S$30)^2+(T19-$T$30)^2+(U19-$U$30)^2+(V19-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="0"/>
         <v>13238.87412768554</v>
       </c>
       <c r="X19" s="9">
-        <f>1-(W19/$AE$2)</f>
-        <v>0.20085743332554096</v>
-      </c>
-      <c r="Y19" s="10">
-        <f>X19-$AE$3</f>
-        <v>1.3117795902059304E-2</v>
-      </c>
-      <c r="Z19">
-        <f>Y19/$AE$4</f>
-        <v>1.6725450372779699E-2</v>
-      </c>
-      <c r="AA19" t="str">
-        <f t="shared" si="0"/>
-        <v>Malta</v>
-      </c>
-      <c r="AB19" s="10">
         <f t="shared" si="1"/>
         <v>0.20085743332554096</v>
       </c>
+      <c r="Y19" s="10">
+        <f t="shared" si="2"/>
+        <v>1.3117795902059304E-2</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="3"/>
+        <v>1.6725450372779699E-2</v>
+      </c>
+      <c r="AA19" t="str">
+        <f t="shared" si="4"/>
+        <v>Malta</v>
+      </c>
+      <c r="AB19" s="10">
+        <f t="shared" si="5"/>
+        <v>0.20085743332554096</v>
+      </c>
       <c r="AC19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AE19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -18422,37 +18416,37 @@
         <v>410.24285714285713</v>
       </c>
       <c r="W20" s="9">
-        <f>((B20-$B$30)^2+(C20-$C$30)^2+(D20-$D$30)^2+(E20-$E$30)^2+(F20-$F$30)^2+(G20-$G$30)^2+(H20-$H$30)^2+(I20-$I$30)^2+(J20-$J$30)^2+(K20-$K$30)^2+(L20-$L$30)^2+(M20-$M$30)^2+(N20-$N$30)^2++(O20-$O$30)^2+(P20-$P$30)+(Q20-$Q$30)^2+(R20-$R$30)^2+(S20-$S$30)^2+(T20-$T$30)^2+(U20-$U$30)^2+(V20-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="0"/>
         <v>13278.476313958578</v>
       </c>
       <c r="X20" s="9">
-        <f>1-(W20/$AE$2)</f>
-        <v>0.19846691337052658</v>
-      </c>
-      <c r="Y20" s="10">
-        <f>X20-$AE$3</f>
-        <v>1.0727275947044923E-2</v>
-      </c>
-      <c r="Z20">
-        <f>Y20/$AE$4</f>
-        <v>1.3677489940154282E-2</v>
-      </c>
-      <c r="AA20" t="str">
-        <f t="shared" si="0"/>
-        <v>Niemcy</v>
-      </c>
-      <c r="AB20" s="10">
         <f t="shared" si="1"/>
         <v>0.19846691337052658</v>
       </c>
+      <c r="Y20" s="10">
+        <f t="shared" si="2"/>
+        <v>1.0727275947044923E-2</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="3"/>
+        <v>1.3677489940154282E-2</v>
+      </c>
+      <c r="AA20" t="str">
+        <f t="shared" si="4"/>
+        <v>Niemcy</v>
+      </c>
+      <c r="AB20" s="10">
+        <f t="shared" si="5"/>
+        <v>0.19846691337052658</v>
+      </c>
       <c r="AC20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AE20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
@@ -18545,37 +18539,37 @@
         <v>442.83333333333331</v>
       </c>
       <c r="W21" s="9">
-        <f>((B21-$B$30)^2+(C21-$C$30)^2+(D21-$D$30)^2+(E21-$E$30)^2+(F21-$F$30)^2+(G21-$G$30)^2+(H21-$H$30)^2+(I21-$I$30)^2+(J21-$J$30)^2+(K21-$K$30)^2+(L21-$L$30)^2+(M21-$M$30)^2+(N21-$N$30)^2++(O21-$O$30)^2+(P21-$P$30)+(Q21-$Q$30)^2+(R21-$R$30)^2+(S21-$S$30)^2+(T21-$T$30)^2+(U21-$U$30)^2+(V21-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="0"/>
         <v>9736.1195125310878</v>
       </c>
       <c r="X21" s="9">
-        <f>1-(W21/$AE$2)</f>
-        <v>0.41229537635511937</v>
-      </c>
-      <c r="Y21" s="10">
-        <f>X21-$AE$3</f>
-        <v>0.22455573893163772</v>
-      </c>
-      <c r="Z21">
-        <f>Y21/$AE$4</f>
-        <v>0.28631302815394277</v>
-      </c>
-      <c r="AA21" t="str">
-        <f t="shared" si="0"/>
-        <v>Polska</v>
-      </c>
-      <c r="AB21" s="10">
         <f t="shared" si="1"/>
         <v>0.41229537635511937</v>
       </c>
+      <c r="Y21" s="10">
+        <f t="shared" si="2"/>
+        <v>0.22455573893163772</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="3"/>
+        <v>0.28631302815394277</v>
+      </c>
+      <c r="AA21" t="str">
+        <f t="shared" si="4"/>
+        <v>Polska</v>
+      </c>
+      <c r="AB21" s="10">
+        <f t="shared" si="5"/>
+        <v>0.41229537635511937</v>
+      </c>
       <c r="AC21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AE21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
@@ -18668,37 +18662,37 @@
         <v>95.699999999999989</v>
       </c>
       <c r="W22" s="9">
-        <f>((B22-$B$30)^2+(C22-$C$30)^2+(D22-$D$30)^2+(E22-$E$30)^2+(F22-$F$30)^2+(G22-$G$30)^2+(H22-$H$30)^2+(I22-$I$30)^2+(J22-$J$30)^2+(K22-$K$30)^2+(L22-$L$30)^2+(M22-$M$30)^2+(N22-$N$30)^2++(O22-$O$30)^2+(P22-$P$30)+(Q22-$Q$30)^2+(R22-$R$30)^2+(S22-$S$30)^2+(T22-$T$30)^2+(U22-$U$30)^2+(V22-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="0"/>
         <v>9471.7349982380656</v>
       </c>
       <c r="X22" s="9">
-        <f>1-(W22/$AE$2)</f>
-        <v>0.42825450681465516</v>
-      </c>
-      <c r="Y22" s="10">
-        <f>X22-$AE$3</f>
-        <v>0.2405148693911735</v>
-      </c>
-      <c r="Z22">
-        <f>Y22/$AE$4</f>
-        <v>0.30666123653335348</v>
-      </c>
-      <c r="AA22" t="str">
-        <f t="shared" si="0"/>
-        <v>Portugalia</v>
-      </c>
-      <c r="AB22" s="10">
         <f t="shared" si="1"/>
         <v>0.42825450681465516</v>
       </c>
+      <c r="Y22" s="10">
+        <f t="shared" si="2"/>
+        <v>0.2405148693911735</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="3"/>
+        <v>0.30666123653335348</v>
+      </c>
+      <c r="AA22" t="str">
+        <f t="shared" si="4"/>
+        <v>Portugalia</v>
+      </c>
+      <c r="AB22" s="10">
+        <f t="shared" si="5"/>
+        <v>0.42825450681465516</v>
+      </c>
       <c r="AC22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AE22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
@@ -18791,37 +18785,37 @@
         <v>267.7</v>
       </c>
       <c r="W23" s="9">
-        <f>((B23-$B$30)^2+(C23-$C$30)^2+(D23-$D$30)^2+(E23-$E$30)^2+(F23-$F$30)^2+(G23-$G$30)^2+(H23-$H$30)^2+(I23-$I$30)^2+(J23-$J$30)^2+(K23-$K$30)^2+(L23-$L$30)^2+(M23-$M$30)^2+(N23-$N$30)^2++(O23-$O$30)^2+(P23-$P$30)+(Q23-$Q$30)^2+(R23-$R$30)^2+(S23-$S$30)^2+(T23-$T$30)^2+(U23-$U$30)^2+(V23-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="0"/>
         <v>9933.4598864837208</v>
       </c>
       <c r="X23" s="9">
-        <f>1-(W23/$AE$2)</f>
-        <v>0.40038325366039484</v>
-      </c>
-      <c r="Y23" s="10">
-        <f>X23-$AE$3</f>
-        <v>0.21264361623691319</v>
-      </c>
-      <c r="Z23">
-        <f>Y23/$AE$4</f>
-        <v>0.27112483507237478</v>
-      </c>
-      <c r="AA23" t="str">
-        <f t="shared" si="0"/>
-        <v>Rumunia</v>
-      </c>
-      <c r="AB23" s="10">
         <f t="shared" si="1"/>
         <v>0.40038325366039484</v>
       </c>
+      <c r="Y23" s="10">
+        <f t="shared" si="2"/>
+        <v>0.21264361623691319</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="3"/>
+        <v>0.27112483507237478</v>
+      </c>
+      <c r="AA23" t="str">
+        <f t="shared" si="4"/>
+        <v>Rumunia</v>
+      </c>
+      <c r="AB23" s="10">
+        <f t="shared" si="5"/>
+        <v>0.40038325366039484</v>
+      </c>
       <c r="AC23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AE23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
@@ -18914,37 +18908,37 @@
         <v>144.01113543840199</v>
       </c>
       <c r="W24" s="9">
-        <f>((B24-$B$30)^2+(C24-$C$30)^2+(D24-$D$30)^2+(E24-$E$30)^2+(F24-$F$30)^2+(G24-$G$30)^2+(H24-$H$30)^2+(I24-$I$30)^2+(J24-$J$30)^2+(K24-$K$30)^2+(L24-$L$30)^2+(M24-$M$30)^2+(N24-$N$30)^2++(O24-$O$30)^2+(P24-$P$30)+(Q24-$Q$30)^2+(R24-$R$30)^2+(S24-$S$30)^2+(T24-$T$30)^2+(U24-$U$30)^2+(V24-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="0"/>
         <v>12653.93135549318</v>
       </c>
       <c r="X24" s="9">
-        <f>1-(W24/$AE$2)</f>
-        <v>0.23616652863221244</v>
-      </c>
-      <c r="Y24" s="10">
-        <f>X24-$AE$3</f>
-        <v>4.8426891208730782E-2</v>
-      </c>
-      <c r="Z24">
-        <f>Y24/$AE$4</f>
-        <v>6.1745248337983054E-2</v>
-      </c>
-      <c r="AA24" t="str">
-        <f t="shared" si="0"/>
-        <v>Słowacja</v>
-      </c>
-      <c r="AB24" s="10">
         <f t="shared" si="1"/>
         <v>0.23616652863221244</v>
       </c>
+      <c r="Y24" s="10">
+        <f t="shared" si="2"/>
+        <v>4.8426891208730782E-2</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="3"/>
+        <v>6.1745248337983054E-2</v>
+      </c>
+      <c r="AA24" t="str">
+        <f t="shared" si="4"/>
+        <v>Słowacja</v>
+      </c>
+      <c r="AB24" s="10">
+        <f t="shared" si="5"/>
+        <v>0.23616652863221244</v>
+      </c>
       <c r="AC24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AE24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
@@ -19037,37 +19031,37 @@
         <v>23.599999999999998</v>
       </c>
       <c r="W25" s="9">
-        <f>((B25-$B$30)^2+(C25-$C$30)^2+(D25-$D$30)^2+(E25-$E$30)^2+(F25-$F$30)^2+(G25-$G$30)^2+(H25-$H$30)^2+(I25-$I$30)^2+(J25-$J$30)^2+(K25-$K$30)^2+(L25-$L$30)^2+(M25-$M$30)^2+(N25-$N$30)^2++(O25-$O$30)^2+(P25-$P$30)+(Q25-$Q$30)^2+(R25-$R$30)^2+(S25-$S$30)^2+(T25-$T$30)^2+(U25-$U$30)^2+(V25-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="0"/>
         <v>13331.087403850654</v>
       </c>
       <c r="X25" s="9">
-        <f>1-(W25/$AE$2)</f>
-        <v>0.1952911326352168</v>
-      </c>
-      <c r="Y25" s="10">
-        <f>X25-$AE$3</f>
-        <v>7.5514952117351486E-3</v>
-      </c>
-      <c r="Z25">
-        <f>Y25/$AE$4</f>
-        <v>9.6283064126902705E-3</v>
-      </c>
-      <c r="AA25" t="str">
-        <f t="shared" si="0"/>
-        <v>Słowenia</v>
-      </c>
-      <c r="AB25" s="10">
         <f t="shared" si="1"/>
         <v>0.1952911326352168</v>
       </c>
+      <c r="Y25" s="10">
+        <f t="shared" si="2"/>
+        <v>7.5514952117351486E-3</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="3"/>
+        <v>9.6283064126902705E-3</v>
+      </c>
+      <c r="AA25" t="str">
+        <f t="shared" si="4"/>
+        <v>Słowenia</v>
+      </c>
+      <c r="AB25" s="10">
+        <f t="shared" si="5"/>
+        <v>0.1952911326352168</v>
+      </c>
       <c r="AC25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AE25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
@@ -19160,37 +19154,37 @@
         <v>71.7</v>
       </c>
       <c r="W26" s="9">
-        <f>((B26-$B$30)^2+(C26-$C$30)^2+(D26-$D$30)^2+(E26-$E$30)^2+(F26-$F$30)^2+(G26-$G$30)^2+(H26-$H$30)^2+(I26-$I$30)^2+(J26-$J$30)^2+(K26-$K$30)^2+(L26-$L$30)^2+(M26-$M$30)^2+(N26-$N$30)^2++(O26-$O$30)^2+(P26-$P$30)+(Q26-$Q$30)^2+(R26-$R$30)^2+(S26-$S$30)^2+(T26-$T$30)^2+(U26-$U$30)^2+(V26-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="0"/>
         <v>12398.231395186529</v>
       </c>
       <c r="X26" s="9">
-        <f>1-(W26/$AE$2)</f>
-        <v>0.25160143046806338</v>
-      </c>
-      <c r="Y26" s="10">
-        <f>X26-$AE$3</f>
-        <v>6.3861793044581727E-2</v>
-      </c>
-      <c r="Z26">
-        <f>Y26/$AE$4</f>
-        <v>8.1425054807888919E-2</v>
-      </c>
-      <c r="AA26" t="str">
-        <f t="shared" si="0"/>
-        <v>Szwecja</v>
-      </c>
-      <c r="AB26" s="10">
         <f t="shared" si="1"/>
         <v>0.25160143046806338</v>
       </c>
+      <c r="Y26" s="10">
+        <f t="shared" si="2"/>
+        <v>6.3861793044581727E-2</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="3"/>
+        <v>8.1425054807888919E-2</v>
+      </c>
+      <c r="AA26" t="str">
+        <f t="shared" si="4"/>
+        <v>Szwecja</v>
+      </c>
+      <c r="AB26" s="10">
+        <f t="shared" si="5"/>
+        <v>0.25160143046806338</v>
+      </c>
       <c r="AC26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AE26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
@@ -19283,37 +19277,37 @@
         <v>144.12425003756678</v>
       </c>
       <c r="W27" s="9">
-        <f>((B27-$B$30)^2+(C27-$C$30)^2+(D27-$D$30)^2+(E27-$E$30)^2+(F27-$F$30)^2+(G27-$G$30)^2+(H27-$H$30)^2+(I27-$I$30)^2+(J27-$J$30)^2+(K27-$K$30)^2+(L27-$L$30)^2+(M27-$M$30)^2+(N27-$N$30)^2++(O27-$O$30)^2+(P27-$P$30)+(Q27-$Q$30)^2+(R27-$R$30)^2+(S27-$S$30)^2+(T27-$T$30)^2+(U27-$U$30)^2+(V27-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="0"/>
         <v>12630.786378718587</v>
       </c>
       <c r="X27" s="9">
-        <f>1-(W27/$AE$2)</f>
-        <v>0.23756363657106572</v>
-      </c>
-      <c r="Y27" s="10">
-        <f>X27-$AE$3</f>
-        <v>4.9823999147584064E-2</v>
-      </c>
-      <c r="Z27">
-        <f>Y27/$AE$4</f>
-        <v>6.352658871491626E-2</v>
-      </c>
-      <c r="AA27" t="str">
-        <f t="shared" si="0"/>
-        <v>Węgry</v>
-      </c>
-      <c r="AB27" s="10">
         <f t="shared" si="1"/>
         <v>0.23756363657106572</v>
       </c>
+      <c r="Y27" s="10">
+        <f t="shared" si="2"/>
+        <v>4.9823999147584064E-2</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="3"/>
+        <v>6.352658871491626E-2</v>
+      </c>
+      <c r="AA27" t="str">
+        <f t="shared" si="4"/>
+        <v>Węgry</v>
+      </c>
+      <c r="AB27" s="10">
+        <f t="shared" si="5"/>
+        <v>0.23756363657106572</v>
+      </c>
       <c r="AC27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AE27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
@@ -19406,37 +19400,37 @@
         <v>325.20000000000005</v>
       </c>
       <c r="W28" s="9">
-        <f>((B28-$B$30)^2+(C28-$C$30)^2+(D28-$D$30)^2+(E28-$E$30)^2+(F28-$F$30)^2+(G28-$G$30)^2+(H28-$H$30)^2+(I28-$I$30)^2+(J28-$J$30)^2+(K28-$K$30)^2+(L28-$L$30)^2+(M28-$M$30)^2+(N28-$N$30)^2++(O28-$O$30)^2+(P28-$P$30)+(Q28-$Q$30)^2+(R28-$R$30)^2+(S28-$S$30)^2+(T28-$T$30)^2+(U28-$U$30)^2+(V28-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="0"/>
         <v>8357.2549849275765</v>
       </c>
       <c r="X28" s="9">
-        <f>1-(W28/$AE$2)</f>
-        <v>0.49552823490923836</v>
-      </c>
-      <c r="Y28" s="10">
-        <f>X28-$AE$3</f>
-        <v>0.30778859748575671</v>
-      </c>
-      <c r="Z28">
-        <f>Y28/$AE$4</f>
-        <v>0.3924365763113713</v>
-      </c>
-      <c r="AA28" t="str">
-        <f t="shared" si="0"/>
-        <v>Wielka Brytania</v>
-      </c>
-      <c r="AB28" s="10">
         <f t="shared" si="1"/>
         <v>0.49552823490923836</v>
       </c>
+      <c r="Y28" s="10">
+        <f t="shared" si="2"/>
+        <v>0.30778859748575671</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="3"/>
+        <v>0.3924365763113713</v>
+      </c>
+      <c r="AA28" t="str">
+        <f t="shared" si="4"/>
+        <v>Wielka Brytania</v>
+      </c>
+      <c r="AB28" s="10">
+        <f t="shared" si="5"/>
+        <v>0.49552823490923836</v>
+      </c>
       <c r="AC28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AE28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
@@ -19529,37 +19523,37 @@
         <v>144.2523062613476</v>
       </c>
       <c r="W29" s="9">
-        <f>((B29-$B$30)^2+(C29-$C$30)^2+(D29-$D$30)^2+(E29-$E$30)^2+(F29-$F$30)^2+(G29-$G$30)^2+(H29-$H$30)^2+(I29-$I$30)^2+(J29-$J$30)^2+(K29-$K$30)^2+(L29-$L$30)^2+(M29-$M$30)^2+(N29-$N$30)^2++(O29-$O$30)^2+(P29-$P$30)+(Q29-$Q$30)^2+(R29-$R$30)^2+(S29-$S$30)^2+(T29-$T$30)^2+(U29-$U$30)^2+(V29-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="0"/>
         <v>10815.616611952821</v>
       </c>
       <c r="X29" s="9">
-        <f>1-(W29/$AE$2)</f>
-        <v>0.34713333353869358</v>
-      </c>
-      <c r="Y29" s="10">
-        <f>X29-$AE$3</f>
-        <v>0.15939369611521192</v>
-      </c>
-      <c r="Z29">
-        <f>Y29/$AE$4</f>
-        <v>0.20323012905623822</v>
-      </c>
-      <c r="AA29" t="str">
-        <f t="shared" si="0"/>
-        <v>Włochy</v>
-      </c>
-      <c r="AB29" s="10">
         <f t="shared" si="1"/>
         <v>0.34713333353869358</v>
       </c>
+      <c r="Y29" s="10">
+        <f t="shared" si="2"/>
+        <v>0.15939369611521192</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="3"/>
+        <v>0.20323012905623822</v>
+      </c>
+      <c r="AA29" t="str">
+        <f t="shared" si="4"/>
+        <v>Włochy</v>
+      </c>
+      <c r="AB29" s="10">
+        <f t="shared" si="5"/>
+        <v>0.34713333353869358</v>
+      </c>
       <c r="AC29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AE29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
@@ -19579,63 +19573,63 @@
         <v>1</v>
       </c>
       <c r="E30" s="17">
-        <f t="shared" ref="E30:K30" si="2">MIN(E2:E29)</f>
+        <f t="shared" ref="E30:K30" si="6">MIN(E2:E29)</f>
         <v>-35.5</v>
       </c>
       <c r="F30" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.9</v>
       </c>
       <c r="G30" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.1</v>
       </c>
       <c r="H30" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.8571428571428577</v>
       </c>
       <c r="I30" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10.7</v>
       </c>
       <c r="J30" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="K30" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>284</v>
       </c>
       <c r="L30" s="7">
-        <f t="shared" ref="L30:S30" si="3">MAX(L2:L29)</f>
+        <f t="shared" ref="L30:S30" si="7">MAX(L2:L29)</f>
         <v>42.7</v>
       </c>
       <c r="M30" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>156.80000000000001</v>
       </c>
       <c r="N30" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16.7</v>
       </c>
       <c r="O30" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>13603</v>
       </c>
       <c r="P30" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.31</v>
       </c>
       <c r="Q30" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.68</v>
       </c>
       <c r="R30" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>81.66</v>
       </c>
       <c r="S30" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.38</v>
       </c>
       <c r="T30" s="17">
@@ -19651,31 +19645,31 @@
         <v>442.83333333333331</v>
       </c>
       <c r="W30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="X30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Y30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Z30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AA30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AB30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AC30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AE30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="6:23" x14ac:dyDescent="0.2">
@@ -33415,7 +33409,7 @@
         <v>132</v>
       </c>
       <c r="C1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D1" t="s">
         <v>64</v>
@@ -33424,7 +33418,7 @@
         <v>65</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G1" t="s">
         <v>66</v>
@@ -33439,10 +33433,10 @@
         <v>29</v>
       </c>
       <c r="K1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -33454,7 +33448,7 @@
         <v>Łotwa</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D2" s="10">
         <f>wzorzec!AB18</f>
@@ -33502,7 +33496,7 @@
         <v>Wielka Brytania</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D3" s="10">
         <f>wzorzec!AB28</f>
@@ -33550,7 +33544,7 @@
         <v>Dania</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D4" s="10">
         <f>wzorzec!AB8</f>
@@ -33598,7 +33592,7 @@
         <v>Portugalia</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D5" s="10">
         <f>wzorzec!AB22</f>
@@ -33621,16 +33615,16 @@
         <v>0.90749404433113401</v>
       </c>
       <c r="I5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -33642,7 +33636,7 @@
         <v>Polska</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D6" s="10">
         <f>wzorzec!AB21</f>
@@ -33665,16 +33659,16 @@
         <v>0.9065008817932767</v>
       </c>
       <c r="I6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -33686,7 +33680,7 @@
         <v>Rumunia</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D7" s="10">
         <f>wzorzec!AB23</f>
@@ -33709,16 +33703,16 @@
         <v>0.81860575644458933</v>
       </c>
       <c r="I7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -33730,7 +33724,7 @@
         <v>Estonia</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D8" s="10">
         <f>wzorzec!AB9</f>
@@ -33753,16 +33747,16 @@
         <v>0.78977267801860873</v>
       </c>
       <c r="I8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -33774,7 +33768,7 @@
         <v>Czechy</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D9" s="10">
         <f>wzorzec!AB7</f>
@@ -33797,16 +33791,16 @@
         <v>0.77720351621917894</v>
       </c>
       <c r="I9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -33818,7 +33812,7 @@
         <v>Grecja</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D10" s="10">
         <f>wzorzec!AB12</f>
@@ -33841,16 +33835,16 @@
         <v>0.7509450451329801</v>
       </c>
       <c r="I10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -33862,7 +33856,7 @@
         <v>Włochy</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D11" s="10">
         <f>wzorzec!AB29</f>
@@ -33885,16 +33879,16 @@
         <v>0.74583305084410445</v>
       </c>
       <c r="I11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -33906,7 +33900,7 @@
         <v>Cypr</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D12" s="10">
         <f>wzorzec!AB6</f>
@@ -33929,16 +33923,16 @@
         <v>0.7338200322709606</v>
       </c>
       <c r="I12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -33950,7 +33944,7 @@
         <v>Belgia</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D13" s="10">
         <f>wzorzec!AB3</f>
@@ -33973,16 +33967,16 @@
         <v>0.70838351058619342</v>
       </c>
       <c r="I13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -33994,7 +33988,7 @@
         <v>Austria</v>
       </c>
       <c r="C14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D14" s="10">
         <f>wzorzec!AB2</f>
@@ -34017,16 +34011,16 @@
         <v>0.69188538381506204</v>
       </c>
       <c r="I14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -34038,7 +34032,7 @@
         <v>Holandia</v>
       </c>
       <c r="C15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D15" s="10">
         <f>wzorzec!AB14</f>
@@ -34061,16 +34055,16 @@
         <v>0.67841414944590839</v>
       </c>
       <c r="I15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -34082,7 +34076,7 @@
         <v>Szwecja</v>
       </c>
       <c r="C16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D16" s="10">
         <f>wzorzec!AB26</f>
@@ -34105,16 +34099,16 @@
         <v>0.63109378222788171</v>
       </c>
       <c r="I16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -34126,7 +34120,7 @@
         <v>Chorwacja</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D17" s="10">
         <f>wzorzec!AB5</f>
@@ -34149,16 +34143,16 @@
         <v>0.60314499243954678</v>
       </c>
       <c r="I17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -34170,7 +34164,7 @@
         <v>Francja</v>
       </c>
       <c r="C18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D18" s="10">
         <f>wzorzec!AB11</f>
@@ -34193,16 +34187,16 @@
         <v>0.55204418519606258</v>
       </c>
       <c r="I18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -34214,7 +34208,7 @@
         <v>Węgry</v>
       </c>
       <c r="C19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D19" s="10">
         <f>wzorzec!AB27</f>
@@ -34237,16 +34231,16 @@
         <v>0.50042324845781194</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -34258,7 +34252,7 @@
         <v>Słowacja</v>
       </c>
       <c r="C20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D20" s="10">
         <f>wzorzec!AB24</f>
@@ -34281,16 +34275,16 @@
         <v>0.47659188310855877</v>
       </c>
       <c r="I20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -34302,7 +34296,7 @@
         <v>Finlandia</v>
       </c>
       <c r="C21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D21" s="10">
         <f>wzorzec!AB10</f>
@@ -34325,16 +34319,16 @@
         <v>0.47088875967597871</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -34346,7 +34340,7 @@
         <v>Luksemburg</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D22" s="10">
         <f>wzorzec!AB17</f>
@@ -34369,16 +34363,16 @@
         <v>0.4223897763953765</v>
       </c>
       <c r="I22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -34390,7 +34384,7 @@
         <v>Malta</v>
       </c>
       <c r="C23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D23" s="10">
         <f>wzorzec!AB19</f>
@@ -34413,16 +34407,16 @@
         <v>0.37470445355938825</v>
       </c>
       <c r="I23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -34434,7 +34428,7 @@
         <v>Niemcy</v>
       </c>
       <c r="C24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D24" s="10">
         <f>wzorzec!AB20</f>
@@ -34457,16 +34451,16 @@
         <v>0.34403696912189458</v>
       </c>
       <c r="I24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -34478,7 +34472,7 @@
         <v>Słowenia</v>
       </c>
       <c r="C25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D25" s="10">
         <f>wzorzec!AB25</f>
@@ -34501,16 +34495,16 @@
         <v>0.26406269104640473</v>
       </c>
       <c r="I25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -34522,7 +34516,7 @@
         <v>Bułgaria</v>
       </c>
       <c r="C26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D26" s="10">
         <f>wzorzec!AB4</f>
@@ -34545,16 +34539,16 @@
         <v>0.24174019906440775</v>
       </c>
       <c r="I26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -34566,7 +34560,7 @@
         <v>Irlandia</v>
       </c>
       <c r="C27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D27" s="10">
         <f>wzorzec!AB15</f>
@@ -34589,16 +34583,16 @@
         <v>0.19433894607595367</v>
       </c>
       <c r="I27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -34610,7 +34604,7 @@
         <v>Litwa</v>
       </c>
       <c r="C28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D28" s="10">
         <f>wzorzec!AB16</f>
@@ -34633,16 +34627,16 @@
         <v>1.1215693723685639E-3</v>
       </c>
       <c r="I28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -34654,7 +34648,7 @@
         <v>Hiszpania</v>
       </c>
       <c r="C29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D29" s="10">
         <f>wzorzec!AB13</f>
@@ -34677,16 +34671,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
